--- a/02_Festlegen_der_Nutzungsanforderungen/Template_Requirementsdokument.xlsx
+++ b/02_Festlegen_der_Nutzungsanforderungen/Template_Requirementsdokument.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carola\Desktop\OTH\HCI\HCI_OTH_APP\02_Festlegen_der_Nutzungsanforderungen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5665D0D2-822A-432C-B790-2DDC499E90C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25362" windowHeight="15822" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
   <si>
     <t>Kommentar</t>
   </si>
@@ -27,77 +33,212 @@
     <t>Quelle</t>
   </si>
   <si>
-    <t>Fokusgruppe</t>
-  </si>
-  <si>
     <t>Priorität</t>
   </si>
   <si>
     <t>1. Nicht Funktionale Anforderungen</t>
   </si>
   <si>
-    <t>1.1 Performance</t>
-  </si>
-  <si>
     <t>1.1.2.</t>
   </si>
   <si>
-    <t>1.1.1.</t>
-  </si>
-  <si>
     <t>Usability Engineering</t>
   </si>
   <si>
     <t>2. Funktionale Anforderungen</t>
   </si>
   <si>
-    <t>1.2 Anforderung</t>
-  </si>
-  <si>
     <t>2.1.1.</t>
   </si>
   <si>
-    <t>Das System...</t>
-  </si>
-  <si>
-    <t>Der Nutzer...</t>
-  </si>
-  <si>
-    <t>2.1.2.</t>
-  </si>
-  <si>
     <t>2.2.1.</t>
   </si>
   <si>
     <t>2.2.2.</t>
   </si>
   <si>
-    <t>Interviews</t>
-  </si>
-  <si>
-    <t>Contextual Inquiry</t>
-  </si>
-  <si>
-    <t>2.1 Featue A</t>
-  </si>
-  <si>
-    <t>2.2 Feature B</t>
-  </si>
-  <si>
-    <t>2.3 Feature C</t>
-  </si>
-  <si>
-    <t>SS 2014</t>
-  </si>
-  <si>
-    <t>Anforderungen iOS App ""</t>
+    <t>Anforderungen "QIS-System"</t>
+  </si>
+  <si>
+    <t>WS 2018/19</t>
+  </si>
+  <si>
+    <t>2.1 Prüfungsanmeldung</t>
+  </si>
+  <si>
+    <t>2.2 Noteneinsicht</t>
+  </si>
+  <si>
+    <t>Der Nutzer muss nach Prüfungen suchen können</t>
+  </si>
+  <si>
+    <t>Der Nutzer muss die Gewichtung der Note einsehen können (in Prozent)</t>
+  </si>
+  <si>
+    <t>Der Nutzer muss eine Notenbestätigung für den Druck exportieren können</t>
+  </si>
+  <si>
+    <t>2.2.3.</t>
+  </si>
+  <si>
+    <t>3.2.1.</t>
+  </si>
+  <si>
+    <t>3.2.2.</t>
+  </si>
+  <si>
+    <t>3.2.3.</t>
+  </si>
+  <si>
+    <t>Der Nutzer muss den Notenspiegel einsehen können</t>
+  </si>
+  <si>
+    <t>2.3 Studiumsverwaltung</t>
+  </si>
+  <si>
+    <t>Der Nutzer muss seine Immatrikulationsbescheinigung einsehen und exportieren können.</t>
+  </si>
+  <si>
+    <t>3.2.4.</t>
+  </si>
+  <si>
+    <t>3.2.5.</t>
+  </si>
+  <si>
+    <t>Der Nutzer muss seine persönlichen Daten ändern können</t>
+  </si>
+  <si>
+    <t>Der Nutzer muss seinen Studenplan konfigurieren können</t>
+  </si>
+  <si>
+    <t>3.2.6.</t>
+  </si>
+  <si>
+    <t>Der Nutzer muss sich für AW-Kurse bewerben können.</t>
+  </si>
+  <si>
+    <t>2.4 Prüfungspläne</t>
+  </si>
+  <si>
+    <t>2.5 Jobsuche</t>
+  </si>
+  <si>
+    <t>2.5.1.</t>
+  </si>
+  <si>
+    <t>Der Nutzer muss alle möglichen Prüfungen einsehen können (wann und wo stattfinden, welche Hilfsmittel erlaubt sind)</t>
+  </si>
+  <si>
+    <t>Der Nutzer muss seinen angemeldeten Prüfungen einsehen können (Hilftmittel, wann, wo).</t>
+  </si>
+  <si>
+    <t>Der Nutzer muss alle zugelassenen Praktikantenstellen Firmen) einsehen können.</t>
+  </si>
+  <si>
+    <t>1.1.3.</t>
+  </si>
+  <si>
+    <t>1.2 Anforderungen</t>
+  </si>
+  <si>
+    <t>Mobile Ansicht mit responsive design</t>
+  </si>
+  <si>
+    <t>muss</t>
+  </si>
+  <si>
+    <t>soll</t>
+  </si>
+  <si>
+    <t>kann</t>
+  </si>
+  <si>
+    <t>Der Nutzer muss sein Druckerguthaben einsehen, aufladen können.</t>
+  </si>
+  <si>
+    <t>3.2.7.</t>
+  </si>
+  <si>
+    <t>Der Nutzer muss seinen Rückmelde-Status einsehen können</t>
+  </si>
+  <si>
+    <t>Hilfsmittel</t>
+  </si>
+  <si>
+    <t>Der Nutzer muss die allg. Rückmeldedaten einsehen können</t>
+  </si>
+  <si>
+    <t>Mehrfache Sprachauswahl (englisch, deutsch)</t>
+  </si>
+  <si>
+    <t>2.6 Noteneintragung</t>
+  </si>
+  <si>
+    <t>2.6.1.</t>
+  </si>
+  <si>
+    <t>Der Nutzer muss die Noten manuell eintragen können.</t>
+  </si>
+  <si>
+    <t>2.6.2.</t>
+  </si>
+  <si>
+    <t>Der Nutzer muss die Noten per Import eintragen können.</t>
+  </si>
+  <si>
+    <t>2.6.3.</t>
+  </si>
+  <si>
+    <t>Der Nutzer muss die Prüfungen nach Studiengängen,  filtern können.</t>
+  </si>
+  <si>
+    <t>2.6.4.</t>
+  </si>
+  <si>
+    <t>Der Nutzer muss die eingetragenen/ gespeicherten Noten ändern können.</t>
+  </si>
+  <si>
+    <t>Das System muss die Eingaben validieren.</t>
+  </si>
+  <si>
+    <t>2.6.5.</t>
+  </si>
+  <si>
+    <t>hoch</t>
+  </si>
+  <si>
+    <t>2.6.6.</t>
+  </si>
+  <si>
+    <t>Jobsuche</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>niedrig</t>
+  </si>
+  <si>
+    <t>mittel</t>
+  </si>
+  <si>
+    <t>Art des Leistungsnachweis</t>
+  </si>
+  <si>
+    <t>2.2.4.</t>
+  </si>
+  <si>
+    <t>hoher</t>
+  </si>
+  <si>
+    <t>2.6 Hilfefunktion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,6 +289,12 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -262,33 +409,33 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -306,6 +453,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -630,28 +785,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" zoomScalePageLayoutView="122" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="122" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.84765625" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6484375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="13.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="12" width="10.83203125" style="4"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="5.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.84765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.84765625" style="1"/>
+    <col min="8" max="8" width="13.1484375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6484375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.84765625" style="1"/>
+    <col min="11" max="13" width="10.84765625" style="4"/>
+    <col min="14" max="16384" width="10.84765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -661,8 +816,9 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -672,10 +828,11 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" ht="18">
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.3" x14ac:dyDescent="0.6">
       <c r="A3" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -685,10 +842,11 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -698,10 +856,11 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -711,8 +870,9 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -722,8 +882,9 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -733,33 +894,35 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" ht="18">
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.3" x14ac:dyDescent="0.6">
       <c r="A8" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -768,414 +931,856 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" s="2" customFormat="1">
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="B10" s="12"/>
       <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" s="2" customFormat="1">
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="B11" s="12"/>
-      <c r="J11" s="5"/>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" s="2" customFormat="1">
-      <c r="B12" s="12"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.3" x14ac:dyDescent="0.6">
+      <c r="A12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" s="2" customFormat="1">
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="B14" s="12"/>
       <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="J14" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" s="2" customFormat="1">
-      <c r="B15" s="12"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="18">
-      <c r="A16" s="8" t="s">
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B16" s="12"/>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B17" s="12"/>
+      <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" s="2" customFormat="1">
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="B18" s="12"/>
       <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="5"/>
+        <v>59</v>
+      </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" ht="30">
-      <c r="B19" s="12"/>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B20" s="12"/>
+      <c r="C20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:12" s="2" customFormat="1">
+      <c r="D20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="B21" s="12"/>
-      <c r="C21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="5"/>
+      <c r="C21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" s="2" customFormat="1">
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B22" s="12"/>
-      <c r="C22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="5"/>
+      <c r="C22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="1:12" s="2" customFormat="1">
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="B23" s="12"/>
-      <c r="J23" s="5"/>
+      <c r="C23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" s="2" customFormat="1">
-      <c r="B25" s="12"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" s="2" customFormat="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="16"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="1:12" s="2" customFormat="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="16"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="4"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="4"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="4"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="B32" s="14"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="14"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="14"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="14"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="14"/>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="14"/>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="14"/>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="14"/>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="14"/>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="14"/>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="14"/>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="14"/>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="14"/>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="14"/>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="14"/>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="14"/>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="14"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="14"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="14"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="14"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="14"/>
-    </row>
-    <row r="53" spans="2:2">
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="C24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="C25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="C26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.6">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.6">
       <c r="B53" s="14"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.6">
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.6">
       <c r="B55" s="14"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.6">
       <c r="B56" s="14"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.6">
       <c r="B57" s="14"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.6">
       <c r="B58" s="14"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.6">
       <c r="B59" s="14"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.6">
       <c r="B60" s="14"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.6">
       <c r="B61" s="14"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.6">
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.6">
       <c r="B63" s="14"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.6">
       <c r="B64" s="14"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B65" s="14"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B66" s="14"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B67" s="14"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B68" s="14"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B69" s="14"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B70" s="14"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B71" s="14"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B72" s="14"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B73" s="14"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B74" s="14"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B75" s="14"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B76" s="14"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B78" s="14"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B79" s="14"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B80" s="14"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B81" s="14"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.6">
       <c r="B82" s="14"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B83" s="14"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B84" s="14"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B85" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
